--- a/output/pre-brief/summary_range_changes.xlsx
+++ b/output/pre-brief/summary_range_changes.xlsx
@@ -513,19 +513,19 @@
         <v>43.0271284928508</v>
       </c>
       <c r="F4" t="n">
-        <v>32.9724859968186</v>
+        <v>34.6482484695863</v>
       </c>
       <c r="G4" t="n">
-        <v>40.8116957975394</v>
+        <v>40.8489394337389</v>
       </c>
       <c r="H4" t="n">
         <v>46.2749439809225</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.67576247276772</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.34823791728422</v>
+        <v>1.38548155348372</v>
       </c>
       <c r="K4" t="n">
         <v>3.24781548807167</v>
@@ -551,7 +551,7 @@
         <v>36.3248740444119</v>
       </c>
       <c r="G5" t="n">
-        <v>47.3502981839458</v>
+        <v>47.4007399824838</v>
       </c>
       <c r="H5" t="n">
         <v>57.8290490329719</v>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.962911810124602</v>
+        <v>1.01335360866261</v>
       </c>
       <c r="K5" t="n">
         <v>2.88641079704717</v>
@@ -647,7 +647,7 @@
         <v>17.1667689638769</v>
       </c>
       <c r="D8" t="n">
-        <v>34.2694814041728</v>
+        <v>36.1173206808723</v>
       </c>
       <c r="E8" t="n">
         <v>42.5860814730994</v>
@@ -656,7 +656,7 @@
         <v>17.1667689638769</v>
       </c>
       <c r="G8" t="n">
-        <v>36.0692643722226</v>
+        <v>37.7938231948207</v>
       </c>
       <c r="H8" t="n">
         <v>44.043108044258</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.79978296804984</v>
+        <v>1.67650251394846</v>
       </c>
       <c r="K8" t="n">
         <v>1.4570265711586</v>
@@ -682,7 +682,7 @@
         <v>22.9874196826221</v>
       </c>
       <c r="D9" t="n">
-        <v>35.3149580031674</v>
+        <v>35.7844675313824</v>
       </c>
       <c r="E9" t="n">
         <v>56.6446775475179</v>
@@ -691,7 +691,7 @@
         <v>22.9874196826221</v>
       </c>
       <c r="G9" t="n">
-        <v>38.0071483098435</v>
+        <v>40.813577110392</v>
       </c>
       <c r="H9" t="n">
         <v>58.4517373593025</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.69219030667607</v>
+        <v>5.02910957900966</v>
       </c>
       <c r="K9" t="n">
         <v>1.80705981178456</v>
